--- a/config_3.16/shoping_config.xlsx
+++ b/config_3.16/shoping_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_3.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.16\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4678" uniqueCount="2060">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4720" uniqueCount="2083">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8661,121 +8661,212 @@
     <t>商城内充值满98抵扣10元</t>
   </si>
   <si>
+    <t>商城内充值满198抵扣20元</t>
+  </si>
+  <si>
+    <t>"jing_bi","obj_20_coupon",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城内充值满498抵扣50元</t>
+  </si>
+  <si>
+    <t>"jing_bi","obj_50_coupon",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城内充值满998抵扣100元</t>
+  </si>
+  <si>
+    <t>"jing_bi","obj_100_coupon",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城内充值满2498抵扣200元</t>
+  </si>
+  <si>
+    <t>"jing_bi","obj_200_coupon",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"500万金币",</t>
+  </si>
+  <si>
+    <t>"980万金币",</t>
+  </si>
+  <si>
+    <t>"1980万金币",</t>
+  </si>
+  <si>
+    <t>"4980万金币",</t>
+  </si>
+  <si>
+    <t>"9980万金币",</t>
+  </si>
+  <si>
+    <t>"24980万金币",</t>
+  </si>
+  <si>
+    <t>5000000,-1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,-1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,-1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,-1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>99800000,-1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>249800000,-1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "fclb_free_002" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "fclb_v1v7_002" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "fclb_v8v12_002" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "hlqjd_029_hlqjd_v1" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币周卡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"金币周卡"</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_jbzk_special_item",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9999999999,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2090万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"金币周卡",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>春暖花开·桃花礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>春暖花开·桃花礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2000万金币","抽奖券*30","桃花*300",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"990万金币","抽奖券*15","桃花*150",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"485万金币","抽奖券*8","桃花*80",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"200万金币","抽奖券*4","桃花*30",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万金币","抽奖券*1","桃花*20",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>"jing_bi","obj_10_coupon",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>商城内充值满198抵扣20元</t>
-  </si>
-  <si>
-    <t>"jing_bi","obj_20_coupon",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>商城内充值满498抵扣50元</t>
-  </si>
-  <si>
-    <t>"jing_bi","obj_50_coupon",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>商城内充值满998抵扣100元</t>
-  </si>
-  <si>
-    <t>"jing_bi","obj_100_coupon",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>商城内充值满2498抵扣200元</t>
-  </si>
-  <si>
-    <t>"jing_bi","obj_200_coupon",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"500万金币",</t>
-  </si>
-  <si>
-    <t>"980万金币",</t>
-  </si>
-  <si>
-    <t>"1980万金币",</t>
-  </si>
-  <si>
-    <t>"4980万金币",</t>
-  </si>
-  <si>
-    <t>"9980万金币",</t>
-  </si>
-  <si>
-    <t>"24980万金币",</t>
-  </si>
-  <si>
-    <t>5000000,-1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9800000,-1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>19800000,-1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>49800000,-1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>99800000,-1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>249800000,-1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "fclb_free_002" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "fclb_v1v7_002" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "fclb_v8v12_002" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "hlqjd_029_hlqjd_v1" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币周卡</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"金币周卡"</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"prop_jbzk_special_item",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9999999999,1,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"2090万金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"金币周卡",</t>
+    <t>"jing_bi","prop_qdlb_cjq","prop_fish_drop_act_0",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>50800000,50,800</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000000,30,300</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9900000,15,150</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4850000,8,80</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,4,30</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000,1,20</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,100,0</t>
+  </si>
+  <si>
+    <t>5,100,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃花礼包498元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃花礼包198元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃花礼包98元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃花礼包48元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃花礼包20元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃花礼包6元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5080万金币","抽奖券*50","桃花*800",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -15124,13 +15215,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN580"/>
+  <dimension ref="A1:AN586"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H557" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="V566" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J580" sqref="J580"/>
+      <selection pane="bottomRight" activeCell="X580" sqref="X580"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -41958,7 +42049,7 @@
         <v>1488</v>
       </c>
       <c r="W422" s="66" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="X422" s="66">
         <v>99999999</v>
@@ -50300,7 +50391,7 @@
         <v>1983</v>
       </c>
       <c r="W549" s="5" t="s">
-        <v>1529</v>
+        <v>2075</v>
       </c>
       <c r="X549" s="5">
         <v>9999999</v>
@@ -51349,7 +51440,7 @@
         <v>1999</v>
       </c>
       <c r="J565" s="5" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="L565" s="5">
         <v>-25</v>
@@ -51398,547 +51489,547 @@
         <v>1</v>
       </c>
     </row>
-    <row r="566" spans="1:39" s="22" customFormat="1">
+    <row r="566" spans="1:39" s="5" customFormat="1">
       <c r="A566" s="5">
         <v>565</v>
       </c>
       <c r="B566" s="5">
         <v>10482</v>
       </c>
-      <c r="F566" s="22">
-        <v>1</v>
-      </c>
-      <c r="G566" s="22" t="s">
+      <c r="F566" s="5">
+        <v>0</v>
+      </c>
+      <c r="G566" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="I566" s="22" t="s">
+      <c r="I566" s="5" t="s">
         <v>2017</v>
       </c>
-      <c r="J566" s="22" t="s">
+      <c r="J566" s="5" t="s">
         <v>1886</v>
       </c>
-      <c r="L566" s="22">
+      <c r="L566" s="5">
         <v>-33</v>
       </c>
-      <c r="M566" s="22">
-        <v>0</v>
-      </c>
-      <c r="N566" s="22">
-        <v>0</v>
-      </c>
-      <c r="O566" s="22" t="s">
+      <c r="M566" s="5">
+        <v>0</v>
+      </c>
+      <c r="N566" s="5">
+        <v>0</v>
+      </c>
+      <c r="O566" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="P566" s="22">
+      <c r="P566" s="5">
         <v>49800</v>
       </c>
-      <c r="Q566" s="22" t="s">
+      <c r="Q566" s="5" t="s">
         <v>2018</v>
       </c>
-      <c r="R566" s="71" t="s">
+      <c r="R566" s="70" t="s">
         <v>1874</v>
       </c>
-      <c r="W566" s="22" t="s">
+      <c r="W566" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="X566" s="22">
+      <c r="X566" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y566" s="22">
+      <c r="Y566" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z566" s="22">
+      <c r="Z566" s="5">
         <v>1615219199</v>
       </c>
-      <c r="AA566" s="22">
+      <c r="AA566" s="5">
         <v>68</v>
       </c>
-      <c r="AH566" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI566" s="22">
-        <v>1</v>
-      </c>
-      <c r="AL566" s="22">
-        <v>1</v>
-      </c>
-      <c r="AM566" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="567" spans="1:39" s="22" customFormat="1">
+      <c r="AH566" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI566" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL566" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM566" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567" spans="1:39" s="5" customFormat="1">
       <c r="A567" s="5">
         <v>566</v>
       </c>
       <c r="B567" s="5">
         <v>10483</v>
       </c>
-      <c r="F567" s="22">
-        <v>1</v>
-      </c>
-      <c r="G567" s="22" t="s">
+      <c r="F567" s="5">
+        <v>0</v>
+      </c>
+      <c r="G567" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="I567" s="22" t="s">
+      <c r="I567" s="5" t="s">
         <v>2017</v>
       </c>
-      <c r="J567" s="22" t="s">
+      <c r="J567" s="5" t="s">
         <v>1888</v>
       </c>
-      <c r="L567" s="22">
+      <c r="L567" s="5">
         <v>-33</v>
       </c>
-      <c r="M567" s="22">
-        <v>0</v>
-      </c>
-      <c r="N567" s="22">
-        <v>0</v>
-      </c>
-      <c r="O567" s="22" t="s">
+      <c r="M567" s="5">
+        <v>0</v>
+      </c>
+      <c r="N567" s="5">
+        <v>0</v>
+      </c>
+      <c r="O567" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="P567" s="22">
+      <c r="P567" s="5">
         <v>19800</v>
       </c>
-      <c r="Q567" s="22" t="s">
+      <c r="Q567" s="5" t="s">
         <v>2018</v>
       </c>
-      <c r="R567" s="71" t="s">
+      <c r="R567" s="70" t="s">
         <v>1875</v>
       </c>
-      <c r="W567" s="22" t="s">
+      <c r="W567" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="X567" s="22">
+      <c r="X567" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y567" s="22">
+      <c r="Y567" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z567" s="22">
+      <c r="Z567" s="5">
         <v>1615219199</v>
       </c>
-      <c r="AA567" s="22">
+      <c r="AA567" s="5">
         <v>68</v>
       </c>
-      <c r="AH567" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI567" s="22">
-        <v>1</v>
-      </c>
-      <c r="AL567" s="22">
-        <v>1</v>
-      </c>
-      <c r="AM567" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="568" spans="1:39" s="22" customFormat="1">
+      <c r="AH567" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI567" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL567" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM567" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568" spans="1:39" s="5" customFormat="1">
       <c r="A568" s="5">
         <v>567</v>
       </c>
       <c r="B568" s="5">
         <v>10484</v>
       </c>
-      <c r="F568" s="22">
-        <v>1</v>
-      </c>
-      <c r="G568" s="22" t="s">
+      <c r="F568" s="5">
+        <v>0</v>
+      </c>
+      <c r="G568" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="I568" s="22" t="s">
+      <c r="I568" s="5" t="s">
         <v>2017</v>
       </c>
-      <c r="J568" s="22" t="s">
+      <c r="J568" s="5" t="s">
         <v>1869</v>
       </c>
-      <c r="L568" s="22">
+      <c r="L568" s="5">
         <v>-33</v>
       </c>
-      <c r="M568" s="22">
-        <v>0</v>
-      </c>
-      <c r="N568" s="22">
-        <v>0</v>
-      </c>
-      <c r="O568" s="22" t="s">
+      <c r="M568" s="5">
+        <v>0</v>
+      </c>
+      <c r="N568" s="5">
+        <v>0</v>
+      </c>
+      <c r="O568" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="P568" s="22">
+      <c r="P568" s="5">
         <v>9800</v>
       </c>
-      <c r="Q568" s="22" t="s">
+      <c r="Q568" s="5" t="s">
         <v>2019</v>
       </c>
-      <c r="R568" s="71" t="s">
+      <c r="R568" s="70" t="s">
         <v>1876</v>
       </c>
-      <c r="W568" s="22" t="s">
+      <c r="W568" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="X568" s="22">
+      <c r="X568" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y568" s="22">
+      <c r="Y568" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z568" s="22">
+      <c r="Z568" s="5">
         <v>1615219199</v>
       </c>
-      <c r="AA568" s="22">
+      <c r="AA568" s="5">
         <v>68</v>
       </c>
-      <c r="AH568" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI568" s="22">
-        <v>1</v>
-      </c>
-      <c r="AL568" s="22">
-        <v>1</v>
-      </c>
-      <c r="AM568" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="569" spans="1:39" s="22" customFormat="1">
+      <c r="AH568" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI568" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL568" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM568" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569" spans="1:39" s="5" customFormat="1">
       <c r="A569" s="5">
         <v>568</v>
       </c>
       <c r="B569" s="5">
         <v>10485</v>
       </c>
-      <c r="F569" s="22">
-        <v>1</v>
-      </c>
-      <c r="G569" s="22" t="s">
+      <c r="F569" s="5">
+        <v>0</v>
+      </c>
+      <c r="G569" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="I569" s="22" t="s">
+      <c r="I569" s="5" t="s">
         <v>2017</v>
       </c>
-      <c r="J569" s="22" t="s">
+      <c r="J569" s="5" t="s">
         <v>1868</v>
       </c>
-      <c r="L569" s="22">
+      <c r="L569" s="5">
         <v>-33</v>
       </c>
-      <c r="M569" s="22">
-        <v>0</v>
-      </c>
-      <c r="N569" s="22">
-        <v>0</v>
-      </c>
-      <c r="O569" s="22" t="s">
+      <c r="M569" s="5">
+        <v>0</v>
+      </c>
+      <c r="N569" s="5">
+        <v>0</v>
+      </c>
+      <c r="O569" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="P569" s="22">
+      <c r="P569" s="5">
         <v>4800</v>
       </c>
-      <c r="Q569" s="22" t="s">
+      <c r="Q569" s="5" t="s">
         <v>2020</v>
       </c>
-      <c r="R569" s="71" t="s">
+      <c r="R569" s="70" t="s">
         <v>1877</v>
       </c>
-      <c r="W569" s="22" t="s">
+      <c r="W569" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="X569" s="22">
+      <c r="X569" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y569" s="22">
+      <c r="Y569" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z569" s="22">
+      <c r="Z569" s="5">
         <v>1615219199</v>
       </c>
-      <c r="AA569" s="22">
+      <c r="AA569" s="5">
         <v>68</v>
       </c>
-      <c r="AH569" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI569" s="22">
-        <v>1</v>
-      </c>
-      <c r="AL569" s="22">
-        <v>1</v>
-      </c>
-      <c r="AM569" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="570" spans="1:39" s="22" customFormat="1">
+      <c r="AH569" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI569" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL569" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM569" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="570" spans="1:39" s="5" customFormat="1">
       <c r="A570" s="5">
         <v>569</v>
       </c>
       <c r="B570" s="5">
         <v>10486</v>
       </c>
-      <c r="F570" s="22">
-        <v>1</v>
-      </c>
-      <c r="G570" s="22" t="s">
+      <c r="F570" s="5">
+        <v>0</v>
+      </c>
+      <c r="G570" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="I570" s="22" t="s">
+      <c r="I570" s="5" t="s">
         <v>2016</v>
       </c>
-      <c r="J570" s="22" t="s">
+      <c r="J570" s="5" t="s">
         <v>1892</v>
       </c>
-      <c r="L570" s="22">
+      <c r="L570" s="5">
         <v>-33</v>
       </c>
-      <c r="M570" s="22">
-        <v>0</v>
-      </c>
-      <c r="N570" s="22">
-        <v>0</v>
-      </c>
-      <c r="O570" s="22" t="s">
+      <c r="M570" s="5">
+        <v>0</v>
+      </c>
+      <c r="N570" s="5">
+        <v>0</v>
+      </c>
+      <c r="O570" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="P570" s="22">
+      <c r="P570" s="5">
         <v>49800</v>
       </c>
-      <c r="Q570" s="22" t="s">
+      <c r="Q570" s="5" t="s">
         <v>2021</v>
       </c>
-      <c r="R570" s="71" t="s">
+      <c r="R570" s="70" t="s">
         <v>1895</v>
       </c>
-      <c r="W570" s="22" t="s">
+      <c r="W570" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="X570" s="22">
+      <c r="X570" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y570" s="22">
+      <c r="Y570" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z570" s="22">
+      <c r="Z570" s="5">
         <v>1615219199</v>
       </c>
-      <c r="AA570" s="22">
+      <c r="AA570" s="5">
         <v>69</v>
       </c>
-      <c r="AH570" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI570" s="22">
-        <v>1</v>
-      </c>
-      <c r="AL570" s="22">
-        <v>1</v>
-      </c>
-      <c r="AM570" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="571" spans="1:39" s="22" customFormat="1">
+      <c r="AH570" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI570" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL570" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM570" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571" spans="1:39" s="5" customFormat="1">
       <c r="A571" s="5">
         <v>570</v>
       </c>
       <c r="B571" s="5">
         <v>10487</v>
       </c>
-      <c r="F571" s="22">
-        <v>1</v>
-      </c>
-      <c r="G571" s="22" t="s">
+      <c r="F571" s="5">
+        <v>0</v>
+      </c>
+      <c r="G571" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="I571" s="22" t="s">
+      <c r="I571" s="5" t="s">
         <v>2016</v>
       </c>
-      <c r="J571" s="22" t="s">
+      <c r="J571" s="5" t="s">
         <v>1896</v>
       </c>
-      <c r="L571" s="22">
+      <c r="L571" s="5">
         <v>-33</v>
       </c>
-      <c r="M571" s="22">
-        <v>0</v>
-      </c>
-      <c r="N571" s="22">
-        <v>0</v>
-      </c>
-      <c r="O571" s="22" t="s">
+      <c r="M571" s="5">
+        <v>0</v>
+      </c>
+      <c r="N571" s="5">
+        <v>0</v>
+      </c>
+      <c r="O571" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="P571" s="22">
+      <c r="P571" s="5">
         <v>19800</v>
       </c>
-      <c r="Q571" s="22" t="s">
+      <c r="Q571" s="5" t="s">
         <v>2021</v>
       </c>
-      <c r="R571" s="71" t="s">
+      <c r="R571" s="70" t="s">
         <v>1897</v>
       </c>
-      <c r="W571" s="22" t="s">
+      <c r="W571" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="X571" s="22">
+      <c r="X571" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y571" s="22">
+      <c r="Y571" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z571" s="22">
+      <c r="Z571" s="5">
         <v>1615219199</v>
       </c>
-      <c r="AA571" s="22">
+      <c r="AA571" s="5">
         <v>69</v>
       </c>
-      <c r="AH571" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI571" s="22">
-        <v>1</v>
-      </c>
-      <c r="AL571" s="22">
-        <v>1</v>
-      </c>
-      <c r="AM571" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="572" spans="1:39" s="22" customFormat="1">
+      <c r="AH571" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI571" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL571" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM571" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572" spans="1:39" s="5" customFormat="1">
       <c r="A572" s="5">
         <v>571</v>
       </c>
       <c r="B572" s="5">
         <v>10488</v>
       </c>
-      <c r="F572" s="22">
-        <v>1</v>
-      </c>
-      <c r="G572" s="22" t="s">
+      <c r="F572" s="5">
+        <v>0</v>
+      </c>
+      <c r="G572" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="I572" s="22" t="s">
+      <c r="I572" s="5" t="s">
         <v>2016</v>
       </c>
-      <c r="J572" s="22" t="s">
+      <c r="J572" s="5" t="s">
         <v>1898</v>
       </c>
-      <c r="L572" s="22">
+      <c r="L572" s="5">
         <v>-33</v>
       </c>
-      <c r="M572" s="22">
-        <v>0</v>
-      </c>
-      <c r="N572" s="22">
-        <v>0</v>
-      </c>
-      <c r="O572" s="22" t="s">
+      <c r="M572" s="5">
+        <v>0</v>
+      </c>
+      <c r="N572" s="5">
+        <v>0</v>
+      </c>
+      <c r="O572" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="P572" s="22">
+      <c r="P572" s="5">
         <v>9800</v>
       </c>
-      <c r="Q572" s="22" t="s">
+      <c r="Q572" s="5" t="s">
         <v>2022</v>
       </c>
-      <c r="R572" s="71" t="s">
+      <c r="R572" s="70" t="s">
         <v>1881</v>
       </c>
-      <c r="W572" s="22" t="s">
+      <c r="W572" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="X572" s="22">
+      <c r="X572" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y572" s="22">
+      <c r="Y572" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z572" s="22">
+      <c r="Z572" s="5">
         <v>1615219199</v>
       </c>
-      <c r="AA572" s="22">
+      <c r="AA572" s="5">
         <v>69</v>
       </c>
-      <c r="AH572" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI572" s="22">
-        <v>1</v>
-      </c>
-      <c r="AL572" s="22">
-        <v>1</v>
-      </c>
-      <c r="AM572" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="573" spans="1:39" s="22" customFormat="1">
+      <c r="AH572" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI572" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL572" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM572" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573" spans="1:39" s="5" customFormat="1">
       <c r="A573" s="5">
         <v>572</v>
       </c>
       <c r="B573" s="5">
         <v>10489</v>
       </c>
-      <c r="F573" s="22">
-        <v>1</v>
-      </c>
-      <c r="G573" s="22" t="s">
+      <c r="F573" s="5">
+        <v>0</v>
+      </c>
+      <c r="G573" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="I573" s="22" t="s">
+      <c r="I573" s="5" t="s">
         <v>2016</v>
       </c>
-      <c r="J573" s="22" t="s">
+      <c r="J573" s="5" t="s">
         <v>1899</v>
       </c>
-      <c r="L573" s="22">
+      <c r="L573" s="5">
         <v>-33</v>
       </c>
-      <c r="M573" s="22">
-        <v>0</v>
-      </c>
-      <c r="N573" s="22">
-        <v>0</v>
-      </c>
-      <c r="O573" s="22" t="s">
+      <c r="M573" s="5">
+        <v>0</v>
+      </c>
+      <c r="N573" s="5">
+        <v>0</v>
+      </c>
+      <c r="O573" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="P573" s="22">
+      <c r="P573" s="5">
         <v>4800</v>
       </c>
-      <c r="Q573" s="22" t="s">
+      <c r="Q573" s="5" t="s">
         <v>2023</v>
       </c>
-      <c r="R573" s="71" t="s">
+      <c r="R573" s="70" t="s">
         <v>1901</v>
       </c>
-      <c r="W573" s="22" t="s">
+      <c r="W573" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="X573" s="22">
+      <c r="X573" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y573" s="22">
+      <c r="Y573" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z573" s="22">
+      <c r="Z573" s="5">
         <v>1615219199</v>
       </c>
-      <c r="AA573" s="22">
+      <c r="AA573" s="5">
         <v>69</v>
       </c>
-      <c r="AH573" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI573" s="22">
-        <v>1</v>
-      </c>
-      <c r="AL573" s="22">
-        <v>1</v>
-      </c>
-      <c r="AM573" s="22">
+      <c r="AH573" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI573" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL573" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM573" s="5">
         <v>1</v>
       </c>
     </row>
@@ -51960,7 +52051,7 @@
       </c>
       <c r="H574" s="22"/>
       <c r="I574" s="22" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="J574" s="22"/>
       <c r="K574" s="22"/>
@@ -51983,7 +52074,7 @@
         <v>2026</v>
       </c>
       <c r="R574" s="82" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="S574" s="22"/>
       <c r="T574" s="22"/>
@@ -52032,7 +52123,7 @@
       </c>
       <c r="H575" s="22"/>
       <c r="I575" s="22" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="J575" s="22"/>
       <c r="K575" s="22"/>
@@ -52052,10 +52143,10 @@
         <v>8800</v>
       </c>
       <c r="Q575" s="22" t="s">
-        <v>2028</v>
+        <v>2066</v>
       </c>
       <c r="R575" s="82" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="S575" s="22"/>
       <c r="T575" s="22"/>
@@ -52100,11 +52191,11 @@
         <v>1</v>
       </c>
       <c r="G576" s="22" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="H576" s="22"/>
       <c r="I576" s="22" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="J576" s="22"/>
       <c r="K576" s="22"/>
@@ -52124,10 +52215,10 @@
         <v>17800</v>
       </c>
       <c r="Q576" s="22" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="R576" s="82" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="S576" s="22"/>
       <c r="T576" s="22"/>
@@ -52172,11 +52263,11 @@
         <v>1</v>
       </c>
       <c r="G577" s="22" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="H577" s="22"/>
       <c r="I577" s="22" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="J577" s="22"/>
       <c r="K577" s="22"/>
@@ -52196,10 +52287,10 @@
         <v>44800</v>
       </c>
       <c r="Q577" s="22" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="R577" s="82" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="S577" s="22"/>
       <c r="T577" s="22"/>
@@ -52244,11 +52335,11 @@
         <v>1</v>
       </c>
       <c r="G578" s="22" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="H578" s="22"/>
       <c r="I578" s="22" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="J578" s="22"/>
       <c r="K578" s="22"/>
@@ -52268,10 +52359,10 @@
         <v>89800</v>
       </c>
       <c r="Q578" s="22" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="R578" s="82" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="S578" s="22"/>
       <c r="T578" s="22"/>
@@ -52316,11 +52407,11 @@
         <v>1</v>
       </c>
       <c r="G579" s="22" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="H579" s="22"/>
       <c r="I579" s="22" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="J579" s="22"/>
       <c r="K579" s="22"/>
@@ -52340,10 +52431,10 @@
         <v>229800</v>
       </c>
       <c r="Q579" s="22" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="R579" s="82" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="S579" s="22"/>
       <c r="T579" s="22"/>
@@ -52385,13 +52476,13 @@
         <v>1</v>
       </c>
       <c r="G580" s="6" t="s">
+        <v>2052</v>
+      </c>
+      <c r="I580" s="6" t="s">
         <v>2053</v>
       </c>
-      <c r="I580" s="6" t="s">
-        <v>2054</v>
-      </c>
       <c r="J580" s="6" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="L580" s="6">
         <v>-31</v>
@@ -52409,13 +52500,13 @@
         <v>1</v>
       </c>
       <c r="Q580" s="5" t="s">
+        <v>2054</v>
+      </c>
+      <c r="R580" s="81" t="s">
         <v>2055</v>
       </c>
-      <c r="R580" s="81" t="s">
+      <c r="W580" s="6" t="s">
         <v>2056</v>
-      </c>
-      <c r="W580" s="6" t="s">
-        <v>2057</v>
       </c>
       <c r="X580" s="6">
         <v>99999999</v>
@@ -52430,6 +52521,396 @@
         <v>1</v>
       </c>
       <c r="AI580" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="581" spans="1:39" s="22" customFormat="1">
+      <c r="A581" s="22">
+        <v>580</v>
+      </c>
+      <c r="B581" s="22">
+        <v>10497</v>
+      </c>
+      <c r="F581" s="22">
+        <v>1</v>
+      </c>
+      <c r="G581" s="22" t="s">
+        <v>2060</v>
+      </c>
+      <c r="I581" s="22" t="s">
+        <v>2076</v>
+      </c>
+      <c r="J581" s="22" t="s">
+        <v>2082</v>
+      </c>
+      <c r="L581" s="22">
+        <v>-31</v>
+      </c>
+      <c r="M581" s="22">
+        <v>0</v>
+      </c>
+      <c r="N581" s="22">
+        <v>0</v>
+      </c>
+      <c r="O581" s="22" t="s">
+        <v>494</v>
+      </c>
+      <c r="P581" s="22">
+        <v>49800</v>
+      </c>
+      <c r="Q581" s="22" t="s">
+        <v>2067</v>
+      </c>
+      <c r="R581" s="71" t="s">
+        <v>2068</v>
+      </c>
+      <c r="W581" s="22" t="s">
+        <v>2074</v>
+      </c>
+      <c r="X581" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y581" s="22">
+        <v>1615852800</v>
+      </c>
+      <c r="Z581" s="22">
+        <v>1616428799</v>
+      </c>
+      <c r="AH581" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI581" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL581" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM581" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582" spans="1:39" s="22" customFormat="1">
+      <c r="A582" s="22">
+        <v>581</v>
+      </c>
+      <c r="B582" s="22">
+        <v>10498</v>
+      </c>
+      <c r="F582" s="22">
+        <v>1</v>
+      </c>
+      <c r="G582" s="22" t="s">
+        <v>2059</v>
+      </c>
+      <c r="I582" s="22" t="s">
+        <v>2077</v>
+      </c>
+      <c r="J582" s="22" t="s">
+        <v>2061</v>
+      </c>
+      <c r="L582" s="22">
+        <v>-31</v>
+      </c>
+      <c r="M582" s="22">
+        <v>0</v>
+      </c>
+      <c r="N582" s="22">
+        <v>0</v>
+      </c>
+      <c r="O582" s="22" t="s">
+        <v>494</v>
+      </c>
+      <c r="P582" s="22">
+        <v>19800</v>
+      </c>
+      <c r="Q582" s="22" t="s">
+        <v>2067</v>
+      </c>
+      <c r="R582" s="71" t="s">
+        <v>2069</v>
+      </c>
+      <c r="W582" s="22" t="s">
+        <v>2074</v>
+      </c>
+      <c r="X582" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y582" s="22">
+        <v>1615852800</v>
+      </c>
+      <c r="Z582" s="22">
+        <v>1616428799</v>
+      </c>
+      <c r="AH582" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI582" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL582" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM582" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="583" spans="1:39" s="22" customFormat="1">
+      <c r="A583" s="22">
+        <v>582</v>
+      </c>
+      <c r="B583" s="22">
+        <v>10499</v>
+      </c>
+      <c r="F583" s="22">
+        <v>1</v>
+      </c>
+      <c r="G583" s="22" t="s">
+        <v>2059</v>
+      </c>
+      <c r="I583" s="22" t="s">
+        <v>2078</v>
+      </c>
+      <c r="J583" s="22" t="s">
+        <v>2062</v>
+      </c>
+      <c r="L583" s="22">
+        <v>-31</v>
+      </c>
+      <c r="M583" s="22">
+        <v>0</v>
+      </c>
+      <c r="N583" s="22">
+        <v>0</v>
+      </c>
+      <c r="O583" s="22" t="s">
+        <v>494</v>
+      </c>
+      <c r="P583" s="22">
+        <v>9800</v>
+      </c>
+      <c r="Q583" s="22" t="s">
+        <v>2067</v>
+      </c>
+      <c r="R583" s="71" t="s">
+        <v>2070</v>
+      </c>
+      <c r="W583" s="22" t="s">
+        <v>2074</v>
+      </c>
+      <c r="X583" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y583" s="22">
+        <v>1615852800</v>
+      </c>
+      <c r="Z583" s="22">
+        <v>1616428799</v>
+      </c>
+      <c r="AH583" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI583" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL583" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM583" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="584" spans="1:39" s="22" customFormat="1">
+      <c r="A584" s="22">
+        <v>583</v>
+      </c>
+      <c r="B584" s="22">
+        <v>10500</v>
+      </c>
+      <c r="F584" s="22">
+        <v>1</v>
+      </c>
+      <c r="G584" s="22" t="s">
+        <v>2059</v>
+      </c>
+      <c r="I584" s="22" t="s">
+        <v>2079</v>
+      </c>
+      <c r="J584" s="22" t="s">
+        <v>2063</v>
+      </c>
+      <c r="L584" s="22">
+        <v>-31</v>
+      </c>
+      <c r="M584" s="22">
+        <v>0</v>
+      </c>
+      <c r="N584" s="22">
+        <v>0</v>
+      </c>
+      <c r="O584" s="22" t="s">
+        <v>494</v>
+      </c>
+      <c r="P584" s="22">
+        <v>4800</v>
+      </c>
+      <c r="Q584" s="22" t="s">
+        <v>2067</v>
+      </c>
+      <c r="R584" s="71" t="s">
+        <v>2071</v>
+      </c>
+      <c r="W584" s="22" t="s">
+        <v>2074</v>
+      </c>
+      <c r="X584" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y584" s="22">
+        <v>1615852800</v>
+      </c>
+      <c r="Z584" s="22">
+        <v>1616428799</v>
+      </c>
+      <c r="AH584" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI584" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL584" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM584" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="585" spans="1:39" s="22" customFormat="1">
+      <c r="A585" s="22">
+        <v>584</v>
+      </c>
+      <c r="B585" s="22">
+        <v>10501</v>
+      </c>
+      <c r="F585" s="22">
+        <v>1</v>
+      </c>
+      <c r="G585" s="22" t="s">
+        <v>2059</v>
+      </c>
+      <c r="I585" s="22" t="s">
+        <v>2080</v>
+      </c>
+      <c r="J585" s="22" t="s">
+        <v>2064</v>
+      </c>
+      <c r="L585" s="22">
+        <v>-31</v>
+      </c>
+      <c r="M585" s="22">
+        <v>0</v>
+      </c>
+      <c r="N585" s="22">
+        <v>0</v>
+      </c>
+      <c r="O585" s="22" t="s">
+        <v>494</v>
+      </c>
+      <c r="P585" s="22">
+        <v>2000</v>
+      </c>
+      <c r="Q585" s="22" t="s">
+        <v>2067</v>
+      </c>
+      <c r="R585" s="71" t="s">
+        <v>2072</v>
+      </c>
+      <c r="W585" s="22" t="s">
+        <v>2074</v>
+      </c>
+      <c r="X585" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y585" s="22">
+        <v>1615852800</v>
+      </c>
+      <c r="Z585" s="22">
+        <v>1616428799</v>
+      </c>
+      <c r="AH585" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI585" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL585" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM585" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="586" spans="1:39" s="22" customFormat="1">
+      <c r="A586" s="22">
+        <v>585</v>
+      </c>
+      <c r="B586" s="22">
+        <v>10502</v>
+      </c>
+      <c r="F586" s="22">
+        <v>1</v>
+      </c>
+      <c r="G586" s="22" t="s">
+        <v>2059</v>
+      </c>
+      <c r="I586" s="22" t="s">
+        <v>2081</v>
+      </c>
+      <c r="J586" s="22" t="s">
+        <v>2065</v>
+      </c>
+      <c r="L586" s="22">
+        <v>-31</v>
+      </c>
+      <c r="M586" s="22">
+        <v>0</v>
+      </c>
+      <c r="N586" s="22">
+        <v>0</v>
+      </c>
+      <c r="O586" s="22" t="s">
+        <v>494</v>
+      </c>
+      <c r="P586" s="22">
+        <v>600</v>
+      </c>
+      <c r="Q586" s="22" t="s">
+        <v>2067</v>
+      </c>
+      <c r="R586" s="71" t="s">
+        <v>2073</v>
+      </c>
+      <c r="W586" s="22" t="s">
+        <v>2074</v>
+      </c>
+      <c r="X586" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y586" s="22">
+        <v>1615852800</v>
+      </c>
+      <c r="Z586" s="22">
+        <v>1616428799</v>
+      </c>
+      <c r="AH586" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI586" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL586" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM586" s="22">
         <v>1</v>
       </c>
     </row>
@@ -53098,7 +53579,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="53" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="C45" s="12">
         <v>1</v>
@@ -53462,7 +53943,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="65" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="C71" s="64">
         <v>1</v>
@@ -53476,7 +53957,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="65" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="C72" s="64">
         <v>1</v>
@@ -53490,7 +53971,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="65" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="C73" s="64">
         <v>1</v>

--- a/config_3.16/shoping_config.xlsx
+++ b/config_3.16/shoping_config.xlsx
@@ -8807,34 +8807,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"jing_bi","prop_qdlb_cjq","prop_fish_drop_act_0",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>50800000,50,800</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000000,30,300</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9900000,15,150</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4850000,8,80</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000000,4,30</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>600000,1,20</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>5,100,0</t>
   </si>
   <si>
@@ -8867,6 +8839,34 @@
   </si>
   <si>
     <t>"5080万金币","抽奖券*50","桃花*800",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_qdlb_cjq","prop_fish_drop_act_0","_common_rank_cnhk_009_thphb_rank",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>50800000,50,800,800</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000000,30,300,300</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9900000,15,150,150</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4850000,8,80,80</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,4,30,30</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000,1,20,20</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -15218,10 +15218,10 @@
   <dimension ref="A1:AN586"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="V566" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="P566" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X580" sqref="X580"/>
+      <selection pane="bottomRight" activeCell="R589" sqref="R589"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -15241,7 +15241,7 @@
     <col min="13" max="14" width="14.75" style="6" customWidth="1"/>
     <col min="15" max="15" width="10.5" style="6" customWidth="1"/>
     <col min="16" max="16" width="13.5" style="6" customWidth="1"/>
-    <col min="17" max="17" width="82.875" style="6" customWidth="1"/>
+    <col min="17" max="17" width="92.625" style="6" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="30.125" style="81" customWidth="1"/>
     <col min="19" max="19" width="40.5" style="6" customWidth="1"/>
     <col min="20" max="20" width="46" style="6" customWidth="1"/>
@@ -50391,7 +50391,7 @@
         <v>1983</v>
       </c>
       <c r="W549" s="5" t="s">
-        <v>2075</v>
+        <v>2068</v>
       </c>
       <c r="X549" s="5">
         <v>9999999</v>
@@ -52538,10 +52538,10 @@
         <v>2060</v>
       </c>
       <c r="I581" s="22" t="s">
-        <v>2076</v>
+        <v>2069</v>
       </c>
       <c r="J581" s="22" t="s">
-        <v>2082</v>
+        <v>2075</v>
       </c>
       <c r="L581" s="22">
         <v>-31</v>
@@ -52559,13 +52559,13 @@
         <v>49800</v>
       </c>
       <c r="Q581" s="22" t="s">
+        <v>2076</v>
+      </c>
+      <c r="R581" s="71" t="s">
+        <v>2077</v>
+      </c>
+      <c r="W581" s="22" t="s">
         <v>2067</v>
-      </c>
-      <c r="R581" s="71" t="s">
-        <v>2068</v>
-      </c>
-      <c r="W581" s="22" t="s">
-        <v>2074</v>
       </c>
       <c r="X581" s="22">
         <v>99999999</v>
@@ -52603,7 +52603,7 @@
         <v>2059</v>
       </c>
       <c r="I582" s="22" t="s">
-        <v>2077</v>
+        <v>2070</v>
       </c>
       <c r="J582" s="22" t="s">
         <v>2061</v>
@@ -52624,13 +52624,13 @@
         <v>19800</v>
       </c>
       <c r="Q582" s="22" t="s">
+        <v>2076</v>
+      </c>
+      <c r="R582" s="71" t="s">
+        <v>2078</v>
+      </c>
+      <c r="W582" s="22" t="s">
         <v>2067</v>
-      </c>
-      <c r="R582" s="71" t="s">
-        <v>2069</v>
-      </c>
-      <c r="W582" s="22" t="s">
-        <v>2074</v>
       </c>
       <c r="X582" s="22">
         <v>99999999</v>
@@ -52668,7 +52668,7 @@
         <v>2059</v>
       </c>
       <c r="I583" s="22" t="s">
-        <v>2078</v>
+        <v>2071</v>
       </c>
       <c r="J583" s="22" t="s">
         <v>2062</v>
@@ -52689,13 +52689,13 @@
         <v>9800</v>
       </c>
       <c r="Q583" s="22" t="s">
+        <v>2076</v>
+      </c>
+      <c r="R583" s="71" t="s">
+        <v>2079</v>
+      </c>
+      <c r="W583" s="22" t="s">
         <v>2067</v>
-      </c>
-      <c r="R583" s="71" t="s">
-        <v>2070</v>
-      </c>
-      <c r="W583" s="22" t="s">
-        <v>2074</v>
       </c>
       <c r="X583" s="22">
         <v>99999999</v>
@@ -52733,7 +52733,7 @@
         <v>2059</v>
       </c>
       <c r="I584" s="22" t="s">
-        <v>2079</v>
+        <v>2072</v>
       </c>
       <c r="J584" s="22" t="s">
         <v>2063</v>
@@ -52754,13 +52754,13 @@
         <v>4800</v>
       </c>
       <c r="Q584" s="22" t="s">
+        <v>2076</v>
+      </c>
+      <c r="R584" s="71" t="s">
+        <v>2080</v>
+      </c>
+      <c r="W584" s="22" t="s">
         <v>2067</v>
-      </c>
-      <c r="R584" s="71" t="s">
-        <v>2071</v>
-      </c>
-      <c r="W584" s="22" t="s">
-        <v>2074</v>
       </c>
       <c r="X584" s="22">
         <v>99999999</v>
@@ -52798,7 +52798,7 @@
         <v>2059</v>
       </c>
       <c r="I585" s="22" t="s">
-        <v>2080</v>
+        <v>2073</v>
       </c>
       <c r="J585" s="22" t="s">
         <v>2064</v>
@@ -52819,13 +52819,13 @@
         <v>2000</v>
       </c>
       <c r="Q585" s="22" t="s">
+        <v>2076</v>
+      </c>
+      <c r="R585" s="71" t="s">
+        <v>2081</v>
+      </c>
+      <c r="W585" s="22" t="s">
         <v>2067</v>
-      </c>
-      <c r="R585" s="71" t="s">
-        <v>2072</v>
-      </c>
-      <c r="W585" s="22" t="s">
-        <v>2074</v>
       </c>
       <c r="X585" s="22">
         <v>99999999</v>
@@ -52863,7 +52863,7 @@
         <v>2059</v>
       </c>
       <c r="I586" s="22" t="s">
-        <v>2081</v>
+        <v>2074</v>
       </c>
       <c r="J586" s="22" t="s">
         <v>2065</v>
@@ -52884,13 +52884,13 @@
         <v>600</v>
       </c>
       <c r="Q586" s="22" t="s">
+        <v>2076</v>
+      </c>
+      <c r="R586" s="71" t="s">
+        <v>2082</v>
+      </c>
+      <c r="W586" s="22" t="s">
         <v>2067</v>
-      </c>
-      <c r="R586" s="71" t="s">
-        <v>2073</v>
-      </c>
-      <c r="W586" s="22" t="s">
-        <v>2074</v>
       </c>
       <c r="X586" s="22">
         <v>99999999</v>
